--- a/gamsWorkSpace/timeRange.xlsx
+++ b/gamsWorkSpace/timeRange.xlsx
@@ -14,11 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="64">
   <si>
     <t>t</t>
   </si>
   <si>
+    <t>TVM</t>
+  </si>
+  <si>
+    <t>TAM</t>
+  </si>
+  <si>
+    <t>TFM</t>
+  </si>
+  <si>
     <t>Mon</t>
   </si>
   <si>
@@ -59,6 +68,15 @@
   </si>
   <si>
     <t>w6</t>
+  </si>
+  <si>
+    <t>w7</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
+  <si>
+    <t>THD</t>
   </si>
   <si>
     <t>t0924</t>
@@ -545,13 +563,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O44"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:21">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -597,477 +615,633 @@
       <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21">
       <c r="A2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21">
       <c r="A3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>22</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21">
       <c r="A4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>23</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21">
       <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="F5">
+        <v>24</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
       <c r="I5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="L5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6">
-        <v>1</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>25</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7">
-        <v>1</v>
-      </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>26</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B8">
         <v>1</v>
       </c>
-      <c r="J8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C9">
         <v>1</v>
       </c>
-      <c r="J9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>29</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="J11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>30</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+      <c r="U11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12">
-        <v>1</v>
-      </c>
-      <c r="J12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>31</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="I12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13">
+        <v>32</v>
+      </c>
+      <c r="C13">
         <v>1</v>
       </c>
       <c r="J13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="H14">
-        <v>1</v>
-      </c>
-      <c r="J14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>33</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" t="s">
-        <v>28</v>
-      </c>
-      <c r="B15">
-        <v>1</v>
-      </c>
-      <c r="K15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>34</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="N15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C16">
         <v>1</v>
       </c>
-      <c r="K16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="N16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
       <c r="A17" t="s">
-        <v>30</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-      <c r="K17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>36</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="N17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
       <c r="A18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="K18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>37</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="N18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
       <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="K19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>38</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="N19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16">
       <c r="A20" t="s">
-        <v>33</v>
-      </c>
-      <c r="G20">
-        <v>1</v>
-      </c>
-      <c r="K20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>39</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>1</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16">
       <c r="A21" t="s">
-        <v>34</v>
-      </c>
-      <c r="H21">
+        <v>40</v>
+      </c>
+      <c r="C21">
         <v>1</v>
       </c>
       <c r="K21">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16">
       <c r="A22" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="L22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>41</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="O22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16">
       <c r="A23" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="C23">
         <v>1</v>
       </c>
-      <c r="L23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="O23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16">
       <c r="A24" t="s">
-        <v>37</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="L24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>43</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="O24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16">
       <c r="A25" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25">
-        <v>1</v>
-      </c>
-      <c r="L25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>44</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <v>1</v>
+      </c>
+      <c r="O25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16">
       <c r="A26" t="s">
-        <v>39</v>
-      </c>
-      <c r="F26">
-        <v>1</v>
-      </c>
-      <c r="L26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>45</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="O26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16">
       <c r="A27" t="s">
-        <v>40</v>
-      </c>
-      <c r="G27">
-        <v>1</v>
-      </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>46</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>1</v>
+      </c>
+      <c r="O27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16">
       <c r="A28" t="s">
-        <v>41</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
-      </c>
-      <c r="L28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>47</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="O28">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16">
       <c r="A29" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29">
-        <v>1</v>
-      </c>
-      <c r="M29">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>48</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="P29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16">
       <c r="A30" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="C30">
         <v>1</v>
       </c>
-      <c r="M30">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="P30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16">
       <c r="A31" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31">
-        <v>1</v>
-      </c>
-      <c r="M31">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>50</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="P31">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16">
       <c r="A32" t="s">
-        <v>45</v>
-      </c>
-      <c r="E32">
-        <v>1</v>
-      </c>
-      <c r="M32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="1:15">
+        <v>51</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="H32">
+        <v>1</v>
+      </c>
+      <c r="P32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21">
       <c r="A33" t="s">
-        <v>46</v>
-      </c>
-      <c r="F33">
-        <v>1</v>
-      </c>
-      <c r="M33">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34" spans="1:15">
+        <v>52</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="P33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" t="s">
-        <v>47</v>
-      </c>
-      <c r="G34">
-        <v>1</v>
-      </c>
-      <c r="M34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:15">
+        <v>53</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="P34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21">
       <c r="A35" t="s">
-        <v>48</v>
-      </c>
-      <c r="H35">
-        <v>1</v>
-      </c>
-      <c r="M35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:15">
+        <v>54</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="K35">
+        <v>1</v>
+      </c>
+      <c r="P35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21">
       <c r="A36" t="s">
-        <v>49</v>
-      </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-      <c r="N36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:15">
+        <v>55</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="Q36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="C37">
         <v>1</v>
       </c>
-      <c r="N37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:15">
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="Q37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" t="s">
-        <v>51</v>
-      </c>
-      <c r="D38">
-        <v>1</v>
-      </c>
-      <c r="N38">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:15">
+        <v>57</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="G38">
+        <v>1</v>
+      </c>
+      <c r="Q38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21">
       <c r="A39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E39">
-        <v>1</v>
-      </c>
-      <c r="N39">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="40" spans="1:15">
+        <v>58</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
+      </c>
+      <c r="Q39">
+        <v>1</v>
+      </c>
+      <c r="U39">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21">
       <c r="A40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F40">
-        <v>1</v>
-      </c>
-      <c r="N40">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="41" spans="1:15">
+        <v>59</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="Q40">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" t="s">
-        <v>54</v>
-      </c>
-      <c r="G41">
-        <v>1</v>
-      </c>
-      <c r="N41">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="42" spans="1:15">
+        <v>60</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+      <c r="Q41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21">
       <c r="A42" t="s">
-        <v>55</v>
-      </c>
-      <c r="H42">
-        <v>1</v>
-      </c>
-      <c r="N42">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="43" spans="1:15">
+        <v>61</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="Q42">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21">
       <c r="A43" t="s">
-        <v>56</v>
-      </c>
-      <c r="B43">
-        <v>1</v>
-      </c>
-      <c r="O43">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="44" spans="1:15">
+        <v>62</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="R43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21">
       <c r="A44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="O44">
+        <v>63</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="R44">
         <v>1</v>
       </c>
     </row>
